--- a/Data_science_outputs_highlands/Graphs/Third/4/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/4/Montlhy_consumption_2.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13002.02504835002</v>
+        <v>7085.296612700017</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.160040933338</v>
+        <v>4841.299221366683</v>
       </c>
       <c r="D2" t="n">
-        <v>5620.1298545</v>
+        <v>528.6809597333333</v>
       </c>
       <c r="E2" t="n">
-        <v>1676.905915283333</v>
+        <v>1542.607309883333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12178.82287296668</v>
+        <v>6610.21142218335</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5267.600863866667</v>
+        <v>471.1968241666667</v>
       </c>
       <c r="E3" t="n">
-        <v>1578.406598766667</v>
+        <v>1429.493635683333</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13013.99136781669</v>
+        <v>7033.344648866684</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5616.20888295</v>
+        <v>524.9945630999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1660.9716132</v>
+        <v>1543.67837735</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12587.46695600002</v>
+        <v>6802.461547850016</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5462.40290425</v>
+        <v>486.9888116166667</v>
       </c>
       <c r="E5" t="n">
-        <v>1642.590426733333</v>
+        <v>1497.375602766667</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13004.17868440002</v>
+        <v>7056.321271633351</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5624.559847699999</v>
+        <v>507.1941670833333</v>
       </c>
       <c r="E6" t="n">
-        <v>1691.5564533</v>
+        <v>1544.9838634</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12620.42237966669</v>
+        <v>6835.931614150017</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5452.220863683333</v>
+        <v>497.98085745</v>
       </c>
       <c r="E7" t="n">
-        <v>1642.30097235</v>
+        <v>1481.9433374</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12989.57492838335</v>
+        <v>7069.486363366684</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5634.44593295</v>
+        <v>507.5388439</v>
       </c>
       <c r="E8" t="n">
-        <v>1685.754952883333</v>
+        <v>1539.039207016667</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13031.12298213335</v>
+        <v>7074.38473658335</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5640.491981516666</v>
+        <v>519.1932391333333</v>
       </c>
       <c r="E9" t="n">
-        <v>1674.454914216667</v>
+        <v>1542.766494</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12587.78195543335</v>
+        <v>6839.473624650016</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5444.632163233334</v>
+        <v>497.3448547333333</v>
       </c>
       <c r="E10" t="n">
-        <v>1623.315652</v>
+        <v>1492.39175845</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12988.62234153335</v>
+        <v>7039.974828366684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5630.200543733334</v>
+        <v>517.8738806833333</v>
       </c>
       <c r="E11" t="n">
-        <v>1675.234227316667</v>
+        <v>1522.608288466667</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12557.58448108335</v>
+        <v>6824.181224466683</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5466.12425375</v>
+        <v>497.5188705333334</v>
       </c>
       <c r="E12" t="n">
-        <v>1634.68876465</v>
+        <v>1507.04202735</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12588.80800785002</v>
+        <v>6838.30072578335</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5434.568201499999</v>
+        <v>495.7275346333333</v>
       </c>
       <c r="E13" t="n">
-        <v>1643.7542065</v>
+        <v>1489.381780283333</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
